--- a/Research/LCS Summer MVP/LCS 2021 Summer - Player Stats - OraclesElixir.xlsx
+++ b/Research/LCS Summer MVP/LCS 2021 Summer - Player Stats - OraclesElixir.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Max\Website\RWTW\Research\LCS Summer MVP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4877E8BE-CFE2-496D-87B7-B676B923C2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2A74F8-2DAD-41E8-A981-56C5833A8EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{34E5E78A-120D-4BFD-A78E-D490009220C1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{34E5E78A-120D-4BFD-A78E-D490009220C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Cleaning" sheetId="2" r:id="rId1"/>
@@ -671,7 +671,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="238">
   <si>
     <t>Player</t>
   </si>
@@ -1376,6 +1376,33 @@
   </si>
   <si>
     <t>Initial Script</t>
+  </si>
+  <si>
+    <t>Do own graphic showing consistency</t>
+  </si>
+  <si>
+    <t>ctr % graph</t>
+  </si>
+  <si>
+    <t>ks % jg graph</t>
+  </si>
+  <si>
+    <t>mid gxd chart</t>
+  </si>
+  <si>
+    <t>1st blood rate chart</t>
+  </si>
+  <si>
+    <t>OR CSPM  vs DMG</t>
+  </si>
+  <si>
+    <t>rng lee sin kick</t>
+  </si>
+  <si>
+    <t>mid lane gxd10 fb% graph</t>
+  </si>
+  <si>
+    <t>WHAT  TO DO FOR A GRAPH?</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1569,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1776,6 +1803,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -1974,7 +2007,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2039,6 +2072,7 @@
     <xf numFmtId="0" fontId="16" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="41" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2482,7 +2516,7 @@
   <dimension ref="A1:Z60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2513,10 +2547,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="43"/>
     </row>
     <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
@@ -2760,7 +2794,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -2922,7 +2956,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
         <v>25</v>
       </c>
@@ -2972,7 +3006,7 @@
         <v>123</v>
       </c>
       <c r="Q7" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="Q7:Q47" si="1">O7+P7</f>
         <v>228</v>
       </c>
       <c r="R7" s="20">
@@ -3053,7 +3087,7 @@
         <v>218</v>
       </c>
       <c r="Q8" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>361</v>
       </c>
       <c r="R8">
@@ -3134,7 +3168,7 @@
         <v>-44</v>
       </c>
       <c r="Q9" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="R9" s="20">
@@ -3165,7 +3199,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -3215,7 +3249,7 @@
         <v>78</v>
       </c>
       <c r="Q10" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>241</v>
       </c>
       <c r="R10">
@@ -3296,7 +3330,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="R11">
@@ -3327,7 +3361,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>94</v>
       </c>
@@ -3377,7 +3411,7 @@
         <v>-37</v>
       </c>
       <c r="Q12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="R12" s="3">
@@ -3458,7 +3492,7 @@
         <v>-112</v>
       </c>
       <c r="Q13" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-235</v>
       </c>
       <c r="R13">
@@ -3489,7 +3523,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -3539,7 +3573,7 @@
         <v>-72</v>
       </c>
       <c r="Q14" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-121</v>
       </c>
       <c r="R14">
@@ -3620,7 +3654,7 @@
         <v>332</v>
       </c>
       <c r="Q15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>487</v>
       </c>
       <c r="R15">
@@ -3651,7 +3685,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -3701,7 +3735,7 @@
         <v>92</v>
       </c>
       <c r="Q16" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>207</v>
       </c>
       <c r="R16">
@@ -3782,7 +3816,7 @@
         <v>68</v>
       </c>
       <c r="Q17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="R17">
@@ -3863,7 +3897,7 @@
         <v>-115</v>
       </c>
       <c r="Q18" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-46</v>
       </c>
       <c r="R18">
@@ -3944,7 +3978,7 @@
         <v>26</v>
       </c>
       <c r="Q19" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-48</v>
       </c>
       <c r="R19">
@@ -3975,7 +4009,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
@@ -4025,7 +4059,7 @@
         <v>-30</v>
       </c>
       <c r="Q20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="R20" s="3">
@@ -4056,7 +4090,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>70</v>
       </c>
@@ -4106,7 +4140,7 @@
         <v>-33</v>
       </c>
       <c r="Q21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>271</v>
       </c>
       <c r="R21" s="3">
@@ -4187,7 +4221,7 @@
         <v>119</v>
       </c>
       <c r="Q22" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>258</v>
       </c>
       <c r="R22">
@@ -4218,7 +4252,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -4268,7 +4302,7 @@
         <v>-139</v>
       </c>
       <c r="Q23" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-425</v>
       </c>
       <c r="R23">
@@ -4349,7 +4383,7 @@
         <v>69</v>
       </c>
       <c r="Q24" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="R24">
@@ -4380,7 +4414,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -4430,7 +4464,7 @@
         <v>-95</v>
       </c>
       <c r="Q25" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-228</v>
       </c>
       <c r="R25">
@@ -4461,7 +4495,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -4511,7 +4545,7 @@
         <v>83</v>
       </c>
       <c r="Q26" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>207</v>
       </c>
       <c r="R26">
@@ -4592,7 +4626,7 @@
         <v>-101</v>
       </c>
       <c r="Q27" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-202</v>
       </c>
       <c r="R27">
@@ -4673,7 +4707,7 @@
         <v>-67</v>
       </c>
       <c r="Q28" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-48</v>
       </c>
       <c r="R28">
@@ -4754,7 +4788,7 @@
         <v>129</v>
       </c>
       <c r="Q29" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="R29">
@@ -4835,7 +4869,7 @@
         <v>202</v>
       </c>
       <c r="Q30" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>456</v>
       </c>
       <c r="R30" s="20">
@@ -4866,7 +4900,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>105</v>
       </c>
@@ -4916,7 +4950,7 @@
         <v>11</v>
       </c>
       <c r="Q31" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="R31">
@@ -4997,7 +5031,7 @@
         <v>-16</v>
       </c>
       <c r="Q32" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="R32">
@@ -5078,7 +5112,7 @@
         <v>-59</v>
       </c>
       <c r="Q33" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-76</v>
       </c>
       <c r="R33">
@@ -5159,7 +5193,7 @@
         <v>59</v>
       </c>
       <c r="Q34" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="R34">
@@ -5240,7 +5274,7 @@
         <v>-121</v>
       </c>
       <c r="Q35" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-178</v>
       </c>
       <c r="R35">
@@ -5271,7 +5305,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -5321,7 +5355,7 @@
         <v>-244</v>
       </c>
       <c r="Q36" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-443</v>
       </c>
       <c r="R36">
@@ -5352,7 +5386,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -5402,7 +5436,7 @@
         <v>-68</v>
       </c>
       <c r="Q37" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-149</v>
       </c>
       <c r="R37">
@@ -5433,7 +5467,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>64</v>
       </c>
@@ -5483,7 +5517,7 @@
         <v>39</v>
       </c>
       <c r="Q38" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-76</v>
       </c>
       <c r="R38">
@@ -5514,12 +5548,12 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
@@ -5528,71 +5562,71 @@
         <v>27</v>
       </c>
       <c r="E39" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.41</v>
       </c>
       <c r="F39" s="1">
         <v>0.41</v>
       </c>
       <c r="G39">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H39">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="I39">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J39">
-        <v>4.4000000000000004</v>
+        <v>2.8</v>
       </c>
       <c r="K39" s="2">
-        <v>0.65800000000000003</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="L39" s="2">
-        <v>0.26900000000000002</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="M39" s="2">
-        <v>0.17199999999999999</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="N39" s="1">
         <v>0.15</v>
       </c>
       <c r="O39">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="P39">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q39" s="8">
-        <f t="shared" si="0"/>
-        <v>147</v>
+        <f t="shared" si="1"/>
+        <v>227</v>
       </c>
       <c r="R39">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="S39">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="T39" s="2">
-        <v>0.27400000000000002</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="U39">
-        <v>463</v>
+        <v>515</v>
       </c>
       <c r="V39" s="9">
-        <v>0.22700000000000001</v>
+        <v>0.255</v>
       </c>
       <c r="W39">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="X39" s="2">
-        <v>0.248</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="Y39">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="Z39">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
@@ -5645,7 +5679,7 @@
         <v>-29</v>
       </c>
       <c r="Q40" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-93</v>
       </c>
       <c r="R40">
@@ -5676,12 +5710,12 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
@@ -5690,74 +5724,74 @@
         <v>27</v>
       </c>
       <c r="E41" s="1">
-        <v>0.41</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F41" s="1">
         <v>0.41</v>
       </c>
       <c r="G41">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H41">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="I41">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="J41">
-        <v>2.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K41" s="2">
-        <v>0.67400000000000004</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="L41" s="2">
-        <v>0.29199999999999998</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="M41" s="2">
-        <v>0.19700000000000001</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="N41" s="1">
         <v>0.15</v>
       </c>
       <c r="O41">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="P41">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q41" s="8">
-        <f t="shared" si="0"/>
-        <v>227</v>
+        <f t="shared" si="1"/>
+        <v>147</v>
       </c>
       <c r="R41">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="S41">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="T41" s="2">
-        <v>0.23100000000000001</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="U41">
-        <v>515</v>
+        <v>463</v>
       </c>
       <c r="V41" s="9">
-        <v>0.255</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="W41">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="X41" s="2">
-        <v>0.23799999999999999</v>
+        <v>0.248</v>
       </c>
       <c r="Y41">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="Z41">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -5807,7 +5841,7 @@
         <v>10</v>
       </c>
       <c r="Q42" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-171</v>
       </c>
       <c r="R42">
@@ -5888,7 +5922,7 @@
         <v>-271</v>
       </c>
       <c r="Q43" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-527</v>
       </c>
       <c r="R43">
@@ -5969,7 +6003,7 @@
         <v>57</v>
       </c>
       <c r="Q44" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>199</v>
       </c>
       <c r="R44">
@@ -6000,7 +6034,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -6050,7 +6084,7 @@
         <v>-140</v>
       </c>
       <c r="Q45" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-336</v>
       </c>
       <c r="R45">
@@ -6131,7 +6165,7 @@
         <v>-158</v>
       </c>
       <c r="Q46" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-295</v>
       </c>
       <c r="R46">
@@ -6162,7 +6196,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -6212,7 +6246,7 @@
         <v>31</v>
       </c>
       <c r="Q47" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-28</v>
       </c>
       <c r="R47">
@@ -6414,10 +6448,10 @@
   <autoFilter ref="A2:Z49" xr:uid="{932BE53D-693E-4888-A229-86B054DC2B1B}">
     <filterColumn colId="2">
       <filters>
-        <filter val="Jungle"/>
+        <filter val="Middle"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:Z42">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:Z47">
       <sortCondition descending="1" ref="N2:N49"/>
     </sortState>
   </autoFilter>
@@ -6433,7 +6467,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68EC758-FD88-4989-ACC3-40D0B07E6970}">
   <dimension ref="C2:Q64"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -6445,17 +6481,17 @@
   <sheetData>
     <row r="2" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="52"/>
+      <c r="D3" s="53"/>
       <c r="E3">
         <v>7</v>
       </c>
-      <c r="J3" s="51" t="s">
+      <c r="J3" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="52"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="18">
         <v>2</v>
       </c>
@@ -6513,6 +6549,9 @@
       <c r="K6" s="33" t="s">
         <v>126</v>
       </c>
+      <c r="L6" s="6" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="7" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C7" s="6" t="s">
@@ -6521,6 +6560,9 @@
       <c r="D7" s="36" t="s">
         <v>129</v>
       </c>
+      <c r="F7" s="6" t="s">
+        <v>233</v>
+      </c>
       <c r="J7" s="6" t="s">
         <v>127</v>
       </c>
@@ -6534,6 +6576,9 @@
       </c>
       <c r="D8" s="36" t="s">
         <v>130</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>234</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>19</v>
@@ -6573,19 +6618,19 @@
     </row>
     <row r="11" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="6"/>
-      <c r="J11" s="51" t="s">
+      <c r="J11" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="K11" s="52"/>
+      <c r="K11" s="53"/>
       <c r="L11">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="52"/>
+      <c r="D12" s="53"/>
       <c r="E12">
         <v>6</v>
       </c>
@@ -6603,6 +6648,9 @@
       <c r="D13" t="s">
         <v>138</v>
       </c>
+      <c r="F13" s="6" t="s">
+        <v>232</v>
+      </c>
       <c r="J13" s="6" t="s">
         <v>118</v>
       </c>
@@ -6623,6 +6671,9 @@
       <c r="K14" t="s">
         <v>135</v>
       </c>
+      <c r="L14" s="42" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="15" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C15" s="6" t="s">
@@ -6637,6 +6688,9 @@
       <c r="K15" s="4" t="s">
         <v>136</v>
       </c>
+      <c r="L15" s="42" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="16" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C16" s="6" t="s">
@@ -6682,19 +6736,24 @@
         <v>221</v>
       </c>
     </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="N20" t="s">
+        <v>132</v>
+      </c>
+    </row>
     <row r="21" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="22" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="52"/>
+      <c r="D22" s="53"/>
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="J22" s="51" t="s">
+      <c r="J22" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="K22" s="52"/>
+      <c r="K22" s="53"/>
       <c r="L22">
         <v>3</v>
       </c>
@@ -6726,11 +6785,17 @@
       <c r="D24" s="31" t="s">
         <v>148</v>
       </c>
+      <c r="E24" s="42" t="s">
+        <v>236</v>
+      </c>
       <c r="J24" s="6" t="s">
         <v>122</v>
       </c>
       <c r="K24" s="36" t="s">
         <v>158</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>168</v>
@@ -6815,20 +6880,20 @@
       </c>
     </row>
     <row r="31" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="52"/>
+      <c r="D31" s="53"/>
       <c r="E31">
         <v>5</v>
       </c>
       <c r="I31" t="s">
         <v>225</v>
       </c>
-      <c r="J31" s="45" t="s">
+      <c r="J31" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="K31" s="46"/>
+      <c r="K31" s="47"/>
       <c r="Q31" t="s">
         <v>118</v>
       </c>
@@ -6843,10 +6908,10 @@
       <c r="I32" t="s">
         <v>225</v>
       </c>
-      <c r="J32" s="45" t="s">
+      <c r="J32" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="K32" s="46"/>
+      <c r="K32" s="47"/>
     </row>
     <row r="33" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C33" s="6" t="s">
@@ -6855,13 +6920,16 @@
       <c r="D33" s="36" t="s">
         <v>184</v>
       </c>
+      <c r="F33" t="s">
+        <v>237</v>
+      </c>
       <c r="I33" t="s">
         <v>226</v>
       </c>
-      <c r="J33" s="45" t="s">
+      <c r="J33" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="K33" s="46"/>
+      <c r="K33" s="47"/>
       <c r="M33" t="s">
         <v>39</v>
       </c>
@@ -6879,10 +6947,10 @@
       <c r="I34" t="s">
         <v>224</v>
       </c>
-      <c r="J34" s="47" t="s">
+      <c r="J34" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="K34" s="48"/>
+      <c r="K34" s="49"/>
       <c r="L34" s="6"/>
       <c r="M34" t="s">
         <v>181</v>
@@ -6898,10 +6966,10 @@
       <c r="I35" t="s">
         <v>224</v>
       </c>
-      <c r="J35" s="49" t="s">
+      <c r="J35" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="K35" s="50"/>
+      <c r="K35" s="51"/>
       <c r="M35" t="s">
         <v>182</v>
       </c>
@@ -6919,10 +6987,10 @@
       <c r="I36" t="s">
         <v>226</v>
       </c>
-      <c r="J36" s="49" t="s">
+      <c r="J36" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="K36" s="50"/>
+      <c r="K36" s="51"/>
       <c r="Q36" t="s">
         <v>175</v>
       </c>
@@ -6937,10 +7005,13 @@
       <c r="I37" t="s">
         <v>226</v>
       </c>
-      <c r="J37" s="43" t="s">
+      <c r="J37" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="K37" s="44"/>
+      <c r="K37" s="45"/>
+      <c r="M37" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="38" spans="3:17" x14ac:dyDescent="0.35">
       <c r="Q38" t="s">
@@ -7059,7 +7130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FD1EA5-6E34-4541-B99D-4A8AD2872E8F}">
   <dimension ref="C3:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
